--- a/application/third_party/template/invoice_report.xlsx
+++ b/application/third_party/template/invoice_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\pos\application\third_party\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pos\application\third_party\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Created Date</t>
   </si>
@@ -57,14 +57,21 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Amount After Discount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -175,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,6 +192,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,13 +213,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G5:G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,27 +546,29 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,47 +588,80 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="12">
+        <f>SUM(H1:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f>SUM(I1:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f>SUM(J1:J4)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="12">
+        <f>SUM(H2:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <f>SUM(I2:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <f>SUM(J2:J5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12">
-        <f>SUM(G5:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <f>SUM(H5:H6)</f>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="13">
+        <f>SUM(H3:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <f>SUM(I3:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <f>SUM(J3:J6)</f>
         <v>0</v>
       </c>
     </row>

--- a/application/third_party/template/invoice_report.xlsx
+++ b/application/third_party/template/invoice_report.xlsx
@@ -71,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -192,32 +192,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,20 +550,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -607,17 +604,20 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="12">
-        <f>SUM(H1:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <f>SUM(I1:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <f>SUM(J1:J4)</f>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:J7" si="0">SUM(G1:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -628,40 +628,46 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="12">
-        <f>SUM(H2:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <f>SUM(I2:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <f>SUM(J2:J5)</f>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="13">
-        <f>SUM(H3:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <f>SUM(I3:I6)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <f>SUM(J3:J6)</f>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
